--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Jag1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Jag1-Notch4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H2">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I2">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J2">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N2">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O2">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P2">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q2">
-        <v>683.8986484267612</v>
+        <v>373.8941336729067</v>
       </c>
       <c r="R2">
-        <v>6155.08783584085</v>
+        <v>3365.04720305616</v>
       </c>
       <c r="S2">
-        <v>0.1793808230459464</v>
+        <v>0.2665128668253918</v>
       </c>
       <c r="T2">
-        <v>0.2184410003928442</v>
+        <v>0.2853959096149157</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H3">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I3">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J3">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>13.217391</v>
       </c>
       <c r="O3">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P3">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q3">
-        <v>63.990920574834</v>
+        <v>55.30576413714</v>
       </c>
       <c r="R3">
-        <v>575.918285173506</v>
+        <v>497.75187723426</v>
       </c>
       <c r="S3">
-        <v>0.01678427648100663</v>
+        <v>0.03942211557952079</v>
       </c>
       <c r="T3">
-        <v>0.0204390529774862</v>
+        <v>0.04221526213266396</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H4">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I4">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J4">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N4">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O4">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P4">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q4">
-        <v>9.510622793401556</v>
+        <v>17.10415627818445</v>
       </c>
       <c r="R4">
-        <v>85.595605140614</v>
+        <v>153.93740650366</v>
       </c>
       <c r="S4">
-        <v>0.00249455580630908</v>
+        <v>0.01219189421227011</v>
       </c>
       <c r="T4">
-        <v>0.003037745376641292</v>
+        <v>0.01305571764728076</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H5">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I5">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J5">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N5">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O5">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P5">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q5">
-        <v>33.14421995236867</v>
+        <v>4.332896625590001</v>
       </c>
       <c r="R5">
-        <v>198.865319714212</v>
+        <v>25.99737975354001</v>
       </c>
       <c r="S5">
-        <v>0.008693448170936794</v>
+        <v>0.003088501790601202</v>
       </c>
       <c r="T5">
-        <v>0.007057631107855809</v>
+        <v>0.002204886111442198</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H6">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I6">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J6">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N6">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O6">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P6">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q6">
-        <v>7.577725210804667</v>
+        <v>21.26122996291112</v>
       </c>
       <c r="R6">
-        <v>68.199526897242</v>
+        <v>191.3510696662</v>
       </c>
       <c r="S6">
-        <v>0.001987573141513127</v>
+        <v>0.01515506888002282</v>
       </c>
       <c r="T6">
-        <v>0.002420367227743561</v>
+        <v>0.01622883997988923</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>13.149005</v>
       </c>
       <c r="H7">
-        <v>39.44701499999999</v>
+        <v>39.447015</v>
       </c>
       <c r="I7">
-        <v>0.189518948871723</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J7">
-        <v>0.2275920187957114</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N7">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O7">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P7">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q7">
-        <v>619.1427058582915</v>
+        <v>391.64774237476</v>
       </c>
       <c r="R7">
-        <v>5572.284352724624</v>
+        <v>3524.82968137284</v>
       </c>
       <c r="S7">
-        <v>0.1623958877755383</v>
+        <v>0.2791676926851804</v>
       </c>
       <c r="T7">
-        <v>0.1977575951710646</v>
+        <v>0.2989473586698648</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>13.149005</v>
       </c>
       <c r="H8">
-        <v>39.44701499999999</v>
+        <v>39.447015</v>
       </c>
       <c r="I8">
-        <v>0.189518948871723</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J8">
-        <v>0.2275920187957114</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>13.217391</v>
       </c>
       <c r="O8">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P8">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q8">
-        <v>57.93184678198499</v>
+        <v>57.931846781985</v>
       </c>
       <c r="R8">
-        <v>521.3866210378649</v>
+        <v>521.386621037865</v>
       </c>
       <c r="S8">
-        <v>0.01519503274385692</v>
+        <v>0.04129399521379803</v>
       </c>
       <c r="T8">
-        <v>0.01850375138885359</v>
+        <v>0.04421976869655977</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>13.149005</v>
       </c>
       <c r="H9">
-        <v>39.44701499999999</v>
+        <v>39.447015</v>
       </c>
       <c r="I9">
-        <v>0.189518948871723</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J9">
-        <v>0.2275920187957114</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N9">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O9">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P9">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q9">
-        <v>8.610095581048331</v>
+        <v>17.91631263580167</v>
       </c>
       <c r="R9">
-        <v>77.49086022943499</v>
+        <v>161.246813722215</v>
       </c>
       <c r="S9">
-        <v>0.002258355145730508</v>
+        <v>0.01277080171491735</v>
       </c>
       <c r="T9">
-        <v>0.00275011201810208</v>
+        <v>0.01367564206319705</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>13.149005</v>
       </c>
       <c r="H10">
-        <v>39.44701499999999</v>
+        <v>39.447015</v>
       </c>
       <c r="I10">
-        <v>0.189518948871723</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J10">
-        <v>0.2275920187957114</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N10">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O10">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P10">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q10">
-        <v>30.00591106895499</v>
+        <v>4.538635481347501</v>
       </c>
       <c r="R10">
-        <v>180.03546641373</v>
+        <v>27.231812888085</v>
       </c>
       <c r="S10">
-        <v>0.007870296331443961</v>
+        <v>0.003235153067866963</v>
       </c>
       <c r="T10">
-        <v>0.006389368996589628</v>
+        <v>0.002309580680651301</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>13.149005</v>
       </c>
       <c r="H11">
-        <v>39.44701499999999</v>
+        <v>39.447015</v>
       </c>
       <c r="I11">
-        <v>0.189518948871723</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J11">
-        <v>0.2275920187957114</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N11">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O11">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P11">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q11">
-        <v>6.860217229644999</v>
+        <v>22.27077657861667</v>
       </c>
       <c r="R11">
-        <v>61.74195506680498</v>
+        <v>200.43698920755</v>
       </c>
       <c r="S11">
-        <v>0.001799376875153288</v>
+        <v>0.01587467675432271</v>
       </c>
       <c r="T11">
-        <v>0.00219119122110147</v>
+        <v>0.01699943370880824</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.309793666666666</v>
+        <v>2.132104</v>
       </c>
       <c r="H12">
-        <v>9.929380999999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I12">
-        <v>0.04770464508066981</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J12">
-        <v>0.05728818434504563</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N12">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O12">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P12">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q12">
-        <v>155.8471235361639</v>
+        <v>63.505468140608</v>
       </c>
       <c r="R12">
-        <v>1402.624111825475</v>
+        <v>571.549213265472</v>
       </c>
       <c r="S12">
-        <v>0.04087738052059359</v>
+        <v>0.04526688933838292</v>
       </c>
       <c r="T12">
-        <v>0.04977843084190936</v>
+        <v>0.04847415140609144</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.309793666666666</v>
+        <v>2.132104</v>
       </c>
       <c r="H13">
-        <v>9.929380999999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I13">
-        <v>0.04770464508066981</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J13">
-        <v>0.05728818434504563</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>13.217391</v>
       </c>
       <c r="O13">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P13">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q13">
-        <v>14.582279007219</v>
+        <v>9.393617406888</v>
       </c>
       <c r="R13">
-        <v>131.240511064971</v>
+        <v>84.54255666199199</v>
       </c>
       <c r="S13">
-        <v>0.003824808275638368</v>
+        <v>0.006695798835829755</v>
       </c>
       <c r="T13">
-        <v>0.004657660344368425</v>
+        <v>0.007170211412727418</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.309793666666666</v>
+        <v>2.132104</v>
       </c>
       <c r="H14">
-        <v>9.929380999999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I14">
-        <v>0.04770464508066981</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J14">
-        <v>0.05728818434504563</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N14">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O14">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P14">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q14">
-        <v>2.167284887605444</v>
+        <v>2.905120336941333</v>
       </c>
       <c r="R14">
-        <v>19.505563988449</v>
+        <v>26.146083032472</v>
       </c>
       <c r="S14">
-        <v>0.0005684604697026821</v>
+        <v>0.002070778543287658</v>
       </c>
       <c r="T14">
-        <v>0.0006922427468951566</v>
+        <v>0.002217497912998793</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.309793666666666</v>
+        <v>2.132104</v>
       </c>
       <c r="H15">
-        <v>9.929380999999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I15">
-        <v>0.04770464508066981</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J15">
-        <v>0.05728818434504563</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N15">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O15">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P15">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q15">
-        <v>7.552919359190333</v>
+        <v>0.735937271628</v>
       </c>
       <c r="R15">
-        <v>45.317516155142</v>
+        <v>4.415623629768</v>
       </c>
       <c r="S15">
-        <v>0.001981066776733534</v>
+        <v>0.0005245783081390129</v>
       </c>
       <c r="T15">
-        <v>0.001608296067946488</v>
+        <v>0.0003744972496047695</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.309793666666666</v>
+        <v>2.132104</v>
       </c>
       <c r="H16">
-        <v>9.929380999999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I16">
-        <v>0.04770464508066981</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J16">
-        <v>0.05728818434504563</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N16">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O16">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P16">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q16">
-        <v>1.726815339916333</v>
+        <v>3.611194293893333</v>
       </c>
       <c r="R16">
-        <v>15.541338059247</v>
+        <v>32.50074864504</v>
       </c>
       <c r="S16">
-        <v>0.0004529290380016443</v>
+        <v>0.002574070190603658</v>
       </c>
       <c r="T16">
-        <v>0.0005515543439261942</v>
+        <v>0.002756448918247798</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.8194875</v>
+        <v>7.086566</v>
       </c>
       <c r="H17">
-        <v>69.638975</v>
+        <v>14.173132</v>
       </c>
       <c r="I17">
-        <v>0.5018594693098147</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J17">
-        <v>0.4017864192541332</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N17">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O17">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P17">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q17">
-        <v>1639.533311254271</v>
+        <v>211.075862781232</v>
       </c>
       <c r="R17">
-        <v>9837.199867525625</v>
+        <v>1266.455176687392</v>
       </c>
       <c r="S17">
-        <v>0.4300357011387372</v>
+        <v>0.1504555119783776</v>
       </c>
       <c r="T17">
-        <v>0.3491173217080657</v>
+        <v>0.1074104181388462</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.8194875</v>
+        <v>7.086566</v>
       </c>
       <c r="H18">
-        <v>69.638975</v>
+        <v>14.173132</v>
       </c>
       <c r="I18">
-        <v>0.5018594693098147</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J18">
-        <v>0.4017864192541332</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>13.217391</v>
       </c>
       <c r="O18">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P18">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q18">
-        <v>153.4075935690375</v>
+        <v>31.221971223102</v>
       </c>
       <c r="R18">
-        <v>920.4455614142249</v>
+        <v>187.331827338612</v>
       </c>
       <c r="S18">
-        <v>0.04023751247237468</v>
+        <v>0.02225511530996177</v>
       </c>
       <c r="T18">
-        <v>0.03266615434335375</v>
+        <v>0.01588796056547776</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.8194875</v>
+        <v>7.086566</v>
       </c>
       <c r="H19">
-        <v>69.638975</v>
+        <v>14.173132</v>
       </c>
       <c r="I19">
-        <v>0.5018594693098147</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J19">
-        <v>0.4017864192541332</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N19">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O19">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P19">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q19">
-        <v>22.80013700337917</v>
+        <v>9.655873731148667</v>
       </c>
       <c r="R19">
-        <v>136.800822020275</v>
+        <v>57.935242386892</v>
       </c>
       <c r="S19">
-        <v>0.005980282824998861</v>
+        <v>0.006882735935203841</v>
       </c>
       <c r="T19">
-        <v>0.004854993009631029</v>
+        <v>0.004913595620516386</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>34.8194875</v>
+        <v>7.086566</v>
       </c>
       <c r="H20">
-        <v>69.638975</v>
+        <v>14.173132</v>
       </c>
       <c r="I20">
-        <v>0.5018594693098147</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J20">
-        <v>0.4017864192541332</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N20">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O20">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P20">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q20">
-        <v>79.45775709961251</v>
+        <v>2.446066442937</v>
       </c>
       <c r="R20">
-        <v>317.83102839845</v>
+        <v>9.784265771748</v>
       </c>
       <c r="S20">
-        <v>0.02084109670153817</v>
+        <v>0.00174356354230162</v>
       </c>
       <c r="T20">
-        <v>0.01127966483190884</v>
+        <v>0.0008298217710901761</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>34.8194875</v>
+        <v>7.086566</v>
       </c>
       <c r="H21">
-        <v>69.638975</v>
+        <v>14.173132</v>
       </c>
       <c r="I21">
-        <v>0.5018594693098147</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J21">
-        <v>0.4017864192541332</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N21">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O21">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P21">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q21">
-        <v>18.1663363938875</v>
+        <v>12.00268218740667</v>
       </c>
       <c r="R21">
-        <v>108.998018363325</v>
+        <v>72.01609312444</v>
       </c>
       <c r="S21">
-        <v>0.004764876172165801</v>
+        <v>0.008555548085058423</v>
       </c>
       <c r="T21">
-        <v>0.003868285361173838</v>
+        <v>0.006107818750802533</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.57841</v>
+        <v>2.398207</v>
       </c>
       <c r="H22">
-        <v>10.73523</v>
+        <v>7.194621</v>
       </c>
       <c r="I22">
-        <v>0.05157626009208017</v>
+        <v>0.06426264320896187</v>
       </c>
       <c r="J22">
-        <v>0.06193758052253855</v>
+        <v>0.06860517894832399</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N22">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O22">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P22">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q22">
-        <v>168.4953690465833</v>
+        <v>71.431439663864</v>
       </c>
       <c r="R22">
-        <v>1516.45832141925</v>
+        <v>642.882956974776</v>
       </c>
       <c r="S22">
-        <v>0.04419490819076153</v>
+        <v>0.05091654575927594</v>
       </c>
       <c r="T22">
-        <v>0.05381835022011853</v>
+        <v>0.05452409883436657</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.57841</v>
+        <v>2.398207</v>
       </c>
       <c r="H23">
-        <v>10.73523</v>
+        <v>7.194621</v>
       </c>
       <c r="I23">
-        <v>0.05157626009208017</v>
+        <v>0.06426264320896187</v>
       </c>
       <c r="J23">
-        <v>0.06193758052253855</v>
+        <v>0.06860517894832399</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>13.217391</v>
       </c>
       <c r="O23">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P23">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q23">
-        <v>15.76574804277</v>
+        <v>10.566013205979</v>
       </c>
       <c r="R23">
-        <v>141.89173238493</v>
+        <v>95.094118853811</v>
       </c>
       <c r="S23">
-        <v>0.004135222180001078</v>
+        <v>0.007531486099495506</v>
       </c>
       <c r="T23">
-        <v>0.005035666881820152</v>
+        <v>0.008065109019767695</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.57841</v>
+        <v>2.398207</v>
       </c>
       <c r="H24">
-        <v>10.73523</v>
+        <v>7.194621</v>
       </c>
       <c r="I24">
-        <v>0.05157626009208017</v>
+        <v>0.06426264320896187</v>
       </c>
       <c r="J24">
-        <v>0.06193758052253855</v>
+        <v>0.06860517894832399</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N24">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O24">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P24">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q24">
-        <v>2.343177459296667</v>
+        <v>3.267701729322333</v>
       </c>
       <c r="R24">
-        <v>21.08859713367</v>
+        <v>29.409315563901</v>
       </c>
       <c r="S24">
-        <v>0.0006145956014948289</v>
+        <v>0.002329227653980418</v>
       </c>
       <c r="T24">
-        <v>0.0007484238044397021</v>
+        <v>0.002494258731018325</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.57841</v>
+        <v>2.398207</v>
       </c>
       <c r="H25">
-        <v>10.73523</v>
+        <v>7.194621</v>
       </c>
       <c r="I25">
-        <v>0.05157626009208017</v>
+        <v>0.06426264320896187</v>
       </c>
       <c r="J25">
-        <v>0.06193758052253855</v>
+        <v>0.06860517894832399</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N25">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O25">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P25">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q25">
-        <v>8.165899414310001</v>
+        <v>0.8277879110865</v>
       </c>
       <c r="R25">
-        <v>48.99539648586001</v>
+        <v>4.966727466519</v>
       </c>
       <c r="S25">
-        <v>0.002141846253416315</v>
+        <v>0.0005900497211332738</v>
       </c>
       <c r="T25">
-        <v>0.001738822208302932</v>
+        <v>0.0004212373906164546</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.57841</v>
+        <v>2.398207</v>
       </c>
       <c r="H26">
-        <v>10.73523</v>
+        <v>7.194621</v>
       </c>
       <c r="I26">
-        <v>0.05157626009208017</v>
+        <v>0.06426264320896187</v>
       </c>
       <c r="J26">
-        <v>0.06193758052253855</v>
+        <v>0.06860517894832399</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N26">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O26">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P26">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q26">
-        <v>1.86696027089</v>
+        <v>4.061899154063333</v>
       </c>
       <c r="R26">
-        <v>16.80264243801</v>
+        <v>36.55709238657</v>
       </c>
       <c r="S26">
-        <v>0.0004896878664064146</v>
+        <v>0.002895333975076744</v>
       </c>
       <c r="T26">
-        <v>0.0005963174078572268</v>
+        <v>0.003100474972554948</v>
       </c>
     </row>
   </sheetData>
